--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966F2A21-D4E5-48B9-B56B-843354DF8F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3906C2-DC6D-407B-9D91-38E33D1F5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,18 +93,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -143,7 +137,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,17 +458,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:U33"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -518,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
